--- a/linux+dotnetwebapi部署.xlsx
+++ b/linux+dotnetwebapi部署.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="10" activeTab="14"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="6" r:id="rId1"/>
@@ -869,6 +869,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -892,22 +908,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1364,10 +1364,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1376,31 +1376,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1421,13 +1421,13 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1439,10 +1439,10 @@
     <xf numFmtId="0" fontId="27" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1457,56 +1457,56 @@
     <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1529,9 +1529,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1569,6 +1566,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -6387,8 +6390,8 @@
   <sheetPr/>
   <dimension ref="B2:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -6402,76 +6405,92 @@
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" t="s">
+      <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" t="s">
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" t="s">
+      <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" t="s">
+      <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" t="s">
+      <c r="B8" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" t="s">
+      <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" t="s">
+      <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" t="s">
+      <c r="B11" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" t="s">
+      <c r="B12" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" t="s">
+      <c r="B13" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" t="s">
+      <c r="B14" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" t="s">
+      <c r="B15" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" t="s">
+      <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="'01-软件'!A1" display="01-软件"/>
+    <hyperlink ref="B4" location="'02-新建虚拟机配置'!A1" display="02-新建虚拟机配置"/>
+    <hyperlink ref="B5" location="'03-虚拟机安装linux系统'!A1" display="03-虚拟机安装linux系统"/>
+    <hyperlink ref="B6" location="'04-修改分辨率'!A1" display="04-修改分辨率"/>
+    <hyperlink ref="B7" location="'05-查看ip地址'!A1" display="05-查看ip地址"/>
+    <hyperlink ref="B8" location="'06-Xshell连接Linux'!A1" display="06-Xshell连接Linux"/>
+    <hyperlink ref="B9" location="'07-FileZilla连接Linux'!A1" display="07-FileZilla连接Linux"/>
+    <hyperlink ref="B10" location="'08-安装mysql'!A1" display="08-安装mysql"/>
+    <hyperlink ref="B11" location="'09-datagrip连接mysql'!A1" display="09-datagrip连接mysql"/>
+    <hyperlink ref="B12" location="'10-建立swagger-WebApi'!A1" display="10-建立swagger-WebApi"/>
+    <hyperlink ref="B13" location="'11-快速编译.net项目'!A1" display="11-快速编译.net项目"/>
+    <hyperlink ref="B14" location="'12-windows-独立开启服务'!A1" display="12-windows-独立开启服务"/>
+    <hyperlink ref="B15" location="'13-windows-iis托管服务'!A1" display="13-windows-iis托管服务"/>
+    <hyperlink ref="B16" location="'14-linux-独立开启服务'!A1" display="14-linux-独立开启服务"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -6499,7 +6518,7 @@
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6524,7 +6543,7 @@
       </c>
     </row>
     <row r="85" ht="15.75" spans="2:2">
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="9" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6575,7 +6594,7 @@
   <sheetPr/>
   <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
+    <sheetView topLeftCell="A148" workbookViewId="0">
       <selection activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
@@ -6600,7 +6619,7 @@
       <c r="B131" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C131" s="8"/>
+      <c r="C131" s="1"/>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" t="s">
@@ -6755,8 +6774,8 @@
   <sheetPr/>
   <dimension ref="A1:D194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="O188" sqref="O188"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6901,15 +6920,15 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="2.375" customWidth="1"/>
     <col min="3" max="3" width="29.25" customWidth="1"/>
-    <col min="4" max="4" width="29.125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="15" customWidth="1"/>
     <col min="5" max="5" width="44.75" customWidth="1"/>
     <col min="6" max="6" width="54.75" customWidth="1"/>
     <col min="7" max="7" width="16.625" customWidth="1"/>
@@ -6922,23 +6941,23 @@
       </c>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="17"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6949,13 +6968,13 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G3" t="s">
@@ -6969,19 +6988,19 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>30</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6992,7 +7011,7 @@
       <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>34</v>
       </c>
       <c r="E5" t="s">
@@ -7012,13 +7031,13 @@
       <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7029,16 +7048,16 @@
       <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>42</v>
       </c>
       <c r="G7" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7049,10 +7068,10 @@
       <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>47</v>
       </c>
       <c r="G8" t="s">
@@ -7066,7 +7085,7 @@
       <c r="C9" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>50</v>
       </c>
       <c r="E9" t="s">
@@ -7086,7 +7105,7 @@
       <c r="E10" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7145,12 +7164,12 @@
       </c>
     </row>
     <row r="343" spans="2:2">
-      <c r="B343" s="15" t="s">
+      <c r="B343" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="390" spans="2:2">
-      <c r="B390" s="15" t="s">
+      <c r="B390" s="14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7183,7 +7202,7 @@
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7254,7 +7273,7 @@
   <sheetPr/>
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
@@ -7292,7 +7311,7 @@
   <sheetPr/>
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
@@ -7304,16 +7323,16 @@
       </c>
     </row>
     <row r="80" ht="15.75" spans="2:2">
-      <c r="B80" s="14"/>
+      <c r="B80" s="13"/>
     </row>
     <row r="93" ht="15.75" spans="2:2">
-      <c r="B93" s="14"/>
+      <c r="B93" s="13"/>
     </row>
     <row r="97" ht="15.75" spans="2:2">
-      <c r="B97" s="14"/>
+      <c r="B97" s="13"/>
     </row>
     <row r="99" ht="15.75" spans="2:2">
-      <c r="B99" s="14"/>
+      <c r="B99" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7370,13 +7389,13 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>81</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>82</v>
       </c>
     </row>
@@ -7431,7 +7450,7 @@
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="12" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7441,7 +7460,7 @@
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="10" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7455,7 +7474,7 @@
       <c r="F86" s="1"/>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -7466,7 +7485,7 @@
       <c r="C92" s="1"/>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7476,7 +7495,7 @@
       </c>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="10" t="s">
         <v>101</v>
       </c>
     </row>

--- a/linux+dotnetwebapi部署.xlsx
+++ b/linux+dotnetwebapi部署.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="167">
   <si>
     <t>目录索引</t>
   </si>
@@ -209,6 +209,24 @@
   <si>
     <t>命令行外壳程序和脚本环境
 带framework</t>
+  </si>
+  <si>
+    <t>BCompare</t>
+  </si>
+  <si>
+    <t>4.3.7.25</t>
+  </si>
+  <si>
+    <t>打开目录“C:\Users\用户名\AppData\Roaming\Scooter Software\Beyond Compare 4”
+找到文件“BCState.xml”打开编辑
+删掉&lt;TBcState&gt;和&lt;TCheckForUpdatesState&gt;两个标签及里面的内容
+删除完之后，保存配置文件，关掉Beyond compare4，重新打开</t>
+  </si>
+  <si>
+    <t>文件比较工具</t>
+  </si>
+  <si>
+    <t>BCompare-4.3.7.25118.exe</t>
   </si>
   <si>
     <t>2-新建虚拟机配置</t>
@@ -6390,7 +6408,7 @@
   <sheetPr/>
   <dimension ref="B2:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -6502,84 +6520,84 @@
   <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86:H92"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="8" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" ht="15.75" spans="2:2">
       <c r="B85" s="9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -6594,8 +6612,8 @@
   <sheetPr/>
   <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B183" sqref="B183"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -6607,23 +6625,23 @@
     </row>
     <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131" ht="15" spans="2:3">
       <c r="B131" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C131" s="1"/>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -6639,7 +6657,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H121" sqref="H121"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -6651,25 +6669,25 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -6685,7 +6703,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6697,23 +6715,23 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K36" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -6732,34 +6750,34 @@
   <dimension ref="A1:B162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B239" sqref="B239"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -6775,7 +6793,7 @@
   <dimension ref="A1:D194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6787,22 +6805,22 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" ht="15" spans="2:2">
@@ -6810,7 +6828,7 @@
     </row>
     <row r="84" ht="15.75" spans="2:2">
       <c r="B84" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" ht="15" spans="2:2">
@@ -6827,85 +6845,85 @@
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D100" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -6918,10 +6936,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -7109,6 +7127,29 @@
         <v>55</v>
       </c>
     </row>
+    <row r="11" ht="128" customHeight="1" spans="2:8">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7123,22 +7164,22 @@
   <dimension ref="A1:N390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:M12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -7149,28 +7190,28 @@
     </row>
     <row r="6" spans="14:14">
       <c r="N6" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="169" spans="10:11">
       <c r="J169" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K169" s="1"/>
     </row>
     <row r="172" spans="10:10">
       <c r="J172" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="343" spans="2:2">
       <c r="B343" s="14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="390" spans="2:2">
       <c r="B390" s="14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -7186,54 +7227,54 @@
   <dimension ref="A1:B725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="14" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="572" spans="2:2">
       <c r="B572" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="609" spans="2:2">
       <c r="B609" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="610" spans="2:2">
       <c r="B610" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="686" spans="2:2">
       <c r="B686" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="687" spans="2:2">
       <c r="B687" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="725" spans="2:2">
       <c r="B725" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -7250,14 +7291,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -7274,29 +7315,29 @@
   <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -7312,14 +7353,14 @@
   <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" ht="15.75" spans="2:2">
@@ -7347,14 +7388,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -7370,19 +7411,19 @@
   <dimension ref="A1:F168"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="3:3">
@@ -7390,83 +7431,83 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="10" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="2:6">
       <c r="B86" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -7475,49 +7516,49 @@
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="10" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C92" s="1"/>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="10" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="10" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138" spans="2:3">
       <c r="B138" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C138" s="1"/>
     </row>
     <row r="141" spans="2:4">
       <c r="B141" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1">
@@ -7526,27 +7567,27 @@
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/linux+dotnetwebapi部署.xlsx
+++ b/linux+dotnetwebapi部署.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="170">
   <si>
     <t>目录索引</t>
   </si>
@@ -227,6 +227,15 @@
   </si>
   <si>
     <t>BCompare-4.3.7.25118.exe</t>
+  </si>
+  <si>
+    <t>dnSpy-net-win64</t>
+  </si>
+  <si>
+    <t>https://github.com/dnSpy/dnSpy/releases</t>
+  </si>
+  <si>
+    <t>反编译工具</t>
   </si>
   <si>
     <t>2-新建虚拟机配置</t>
@@ -6527,77 +6536,77 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" ht="15.75" spans="2:2">
       <c r="B85" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -6625,23 +6634,23 @@
     </row>
     <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131" ht="15" spans="2:3">
       <c r="B131" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C131" s="1"/>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -6669,25 +6678,25 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -6715,23 +6724,23 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K36" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -6757,27 +6766,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -6805,22 +6814,22 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" ht="15" spans="2:2">
@@ -6828,7 +6837,7 @@
     </row>
     <row r="84" ht="15.75" spans="2:2">
       <c r="B84" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" ht="15" spans="2:2">
@@ -6845,85 +6854,85 @@
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D100" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -6936,10 +6945,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -7150,7 +7159,27 @@
         <v>60</v>
       </c>
     </row>
+    <row r="12" ht="22" customHeight="1" spans="2:8">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E12" r:id="rId2" display="https://github.com/dnSpy/dnSpy/releases"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -7171,15 +7200,15 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -7190,28 +7219,28 @@
     </row>
     <row r="6" spans="14:14">
       <c r="N6" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="169" spans="10:11">
       <c r="J169" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K169" s="1"/>
     </row>
     <row r="172" spans="10:10">
       <c r="J172" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="343" spans="2:2">
       <c r="B343" s="14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="390" spans="2:2">
       <c r="B390" s="14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -7234,47 +7263,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="572" spans="2:2">
       <c r="B572" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="609" spans="2:2">
       <c r="B609" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="610" spans="2:2">
       <c r="B610" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="686" spans="2:2">
       <c r="B686" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="687" spans="2:2">
       <c r="B687" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="725" spans="2:2">
       <c r="B725" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -7298,7 +7327,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -7322,22 +7351,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -7360,7 +7389,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" ht="15.75" spans="2:2">
@@ -7395,7 +7424,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -7418,12 +7447,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="3:3">
@@ -7431,83 +7460,83 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="2:6">
       <c r="B86" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -7516,49 +7545,49 @@
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C92" s="1"/>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="138" spans="2:3">
       <c r="B138" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C138" s="1"/>
     </row>
     <row r="141" spans="2:4">
       <c r="B141" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1">
@@ -7567,27 +7596,27 @@
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
